--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/27.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/27.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1707039451840903</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.113185192644306</v>
+        <v>-2.111021194083204</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1387456324245711</v>
+        <v>0.1390615713351266</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03097020916048224</v>
+        <v>0.02894710227570893</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1652292295299723</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.07619289367886</v>
+        <v>-2.072610219623642</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07080961784498863</v>
+        <v>0.07166045718905217</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04483553590499584</v>
+        <v>0.04325950087627885</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1710342559047588</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.135799831496771</v>
+        <v>-2.132103712195677</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01982634847561847</v>
+        <v>0.02091383704226026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08216390116333049</v>
+        <v>0.08089404631434102</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1923452635659464</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.204983133860303</v>
+        <v>-2.198707050096565</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0452430389232481</v>
+        <v>-0.04690873229144704</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1005914345699195</v>
+        <v>0.1003840615398252</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2281852677813183</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.257399716820031</v>
+        <v>-2.248862657107588</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04132856801987905</v>
+        <v>-0.04324066934148422</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1419513755015589</v>
+        <v>0.1413926881616576</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2689307563665242</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.140531596106982</v>
+        <v>-2.129788453306741</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03491891162793372</v>
+        <v>-0.03683650223562961</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1030634430727794</v>
+        <v>0.1037660716923932</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2990188463255964</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.886965003717775</v>
+        <v>-1.874998969960654</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09519249274553029</v>
+        <v>-0.09806399929166015</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1807856349107844</v>
+        <v>0.1826111274962914</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3058263994795038</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.540077498182731</v>
+        <v>-1.529777767714486</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2363525341721008</v>
+        <v>-0.2418009555774912</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1519705424584992</v>
+        <v>0.1535057128018741</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2846291434858932</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.079992374567308</v>
+        <v>-1.069034539688852</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3723117819880407</v>
+        <v>-0.3784506335995099</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2149222852676965</v>
+        <v>0.2174540659968777</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2381814165365803</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3742281527543831</v>
+        <v>-0.3615472919641142</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6714980013152958</v>
+        <v>-0.6783303327362276</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2454622333938253</v>
+        <v>0.2481275867512143</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1709006986632727</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3961376472983423</v>
+        <v>0.4107934312399213</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.115930730603333</v>
+        <v>-1.125130774091401</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3983693470545634</v>
+        <v>0.4030291410249185</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.08722268618077889</v>
       </c>
       <c r="E13" t="n">
-        <v>1.222838160738225</v>
+        <v>1.241693248539215</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.559515670150691</v>
+        <v>-1.571278600322454</v>
       </c>
       <c r="G13" t="n">
-        <v>0.530250055305089</v>
+        <v>0.5348854524483743</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.008635680073854639</v>
       </c>
       <c r="E14" t="n">
-        <v>1.960206032337527</v>
+        <v>1.980504192459702</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.090078957726383</v>
+        <v>-2.103286180060685</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7507985918585403</v>
+        <v>0.7569398831527164</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1126252827118891</v>
       </c>
       <c r="E15" t="n">
-        <v>2.664051443701402</v>
+        <v>2.687822492156981</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.666544265513456</v>
+        <v>-2.682542484864558</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9467295100570864</v>
+        <v>0.9566047357343141</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2205390505012853</v>
       </c>
       <c r="E16" t="n">
-        <v>3.400956385507052</v>
+        <v>3.426619407901903</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.123228166474993</v>
+        <v>-3.139970794012066</v>
       </c>
       <c r="G16" t="n">
-        <v>1.156032939093334</v>
+        <v>1.166379023533011</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.33213824408506</v>
       </c>
       <c r="E17" t="n">
-        <v>3.99740879387116</v>
+        <v>4.023796402029988</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.587502530258661</v>
+        <v>-3.604497359995568</v>
       </c>
       <c r="G17" t="n">
-        <v>1.382622739949974</v>
+        <v>1.394178297091643</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.447487157471017</v>
       </c>
       <c r="E18" t="n">
-        <v>4.437682474064452</v>
+        <v>4.465513154544466</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.968315043675785</v>
+        <v>-3.983456324476056</v>
       </c>
       <c r="G18" t="n">
-        <v>1.614178514956698</v>
+        <v>1.626894751146218</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5665268017566534</v>
       </c>
       <c r="E19" t="n">
-        <v>4.719962302152928</v>
+        <v>4.748472434266839</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.412561747157414</v>
+        <v>-4.429800240204683</v>
       </c>
       <c r="G19" t="n">
-        <v>1.815987238717065</v>
+        <v>1.828833997931409</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6885492226400901</v>
       </c>
       <c r="E20" t="n">
-        <v>5.097534916935166</v>
+        <v>5.128277358725976</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.774228240610741</v>
+        <v>-4.790896762785589</v>
       </c>
       <c r="G20" t="n">
-        <v>2.063980985882826</v>
+        <v>2.077514515779188</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8093132674533767</v>
       </c>
       <c r="E21" t="n">
-        <v>5.32092446400091</v>
+        <v>5.350325080302873</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.112809541409491</v>
+        <v>-5.129896774128927</v>
       </c>
       <c r="G21" t="n">
-        <v>2.298878516277452</v>
+        <v>2.311863727485417</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9260685166917513</v>
       </c>
       <c r="E22" t="n">
-        <v>5.50259665661844</v>
+        <v>5.530674964893214</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.399496656308148</v>
+        <v>-5.416213362216459</v>
       </c>
       <c r="G22" t="n">
-        <v>2.450646298114024</v>
+        <v>2.465775990421437</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.033939594905871</v>
       </c>
       <c r="E23" t="n">
-        <v>5.592126912758288</v>
+        <v>5.616739651747779</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.606889813784821</v>
+        <v>-5.623523570481094</v>
       </c>
       <c r="G23" t="n">
-        <v>2.617557190512898</v>
+        <v>2.635449823485979</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.129026193288643</v>
       </c>
       <c r="E24" t="n">
-        <v>5.630688537625007</v>
+        <v>5.655670888544607</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.838620026105094</v>
+        <v>-5.857525432361915</v>
       </c>
       <c r="G24" t="n">
-        <v>2.756176302400136</v>
+        <v>2.772927163866345</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.208393185089647</v>
       </c>
       <c r="E25" t="n">
-        <v>5.709536643032289</v>
+        <v>5.733490667690893</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.921192764605108</v>
+        <v>-5.940494466821646</v>
       </c>
       <c r="G25" t="n">
-        <v>2.860502014316538</v>
+        <v>2.878031134566277</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.268673119627441</v>
       </c>
       <c r="E26" t="n">
-        <v>5.747771350416271</v>
+        <v>5.772520711637354</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.930121240911853</v>
+        <v>-5.94900499498465</v>
       </c>
       <c r="G26" t="n">
-        <v>2.865152049556065</v>
+        <v>2.882527469795264</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.309386156691359</v>
       </c>
       <c r="E27" t="n">
-        <v>5.773405096618639</v>
+        <v>5.796534508522279</v>
       </c>
       <c r="F27" t="n">
-        <v>-6.026165754839708</v>
+        <v>-6.045987566913343</v>
       </c>
       <c r="G27" t="n">
-        <v>2.85395390593097</v>
+        <v>2.872007557962713</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.330004420683001</v>
       </c>
       <c r="E28" t="n">
-        <v>5.754276764354466</v>
+        <v>5.779488445448524</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.912317961317916</v>
+        <v>-5.93026624955275</v>
       </c>
       <c r="G28" t="n">
-        <v>2.79317653033438</v>
+        <v>2.811148452995438</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.331406839909895</v>
       </c>
       <c r="E29" t="n">
-        <v>5.667777813978057</v>
+        <v>5.692602805363056</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.80564466471671</v>
+        <v>-5.822550903475321</v>
       </c>
       <c r="G29" t="n">
-        <v>2.671720586290832</v>
+        <v>2.688697118407438</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.315465679700455</v>
       </c>
       <c r="E30" t="n">
-        <v>5.516907835377657</v>
+        <v>5.541766982320555</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.727721961456225</v>
+        <v>-5.745794368548777</v>
       </c>
       <c r="G30" t="n">
-        <v>2.560984608061808</v>
+        <v>2.576231405139156</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.283305007922891</v>
       </c>
       <c r="E31" t="n">
-        <v>5.371922371466523</v>
+        <v>5.398055032782469</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.583463370511605</v>
+        <v>-5.597698004225889</v>
       </c>
       <c r="G31" t="n">
-        <v>2.399084823943097</v>
+        <v>2.412622623284197</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.238891307335431</v>
       </c>
       <c r="E32" t="n">
-        <v>5.174835043664862</v>
+        <v>5.200628589084538</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.385301362477514</v>
+        <v>-5.398458876276662</v>
       </c>
       <c r="G32" t="n">
-        <v>2.291532631646698</v>
+        <v>2.304354384113295</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.184558928594536</v>
       </c>
       <c r="E33" t="n">
-        <v>4.903040971851039</v>
+        <v>4.928618605351145</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.210822879281889</v>
+        <v>-5.224140802219021</v>
       </c>
       <c r="G33" t="n">
-        <v>2.134562226437464</v>
+        <v>2.145650584340744</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.125289728630485</v>
       </c>
       <c r="E34" t="n">
-        <v>4.659850959935346</v>
+        <v>4.682355813065996</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.950542585043378</v>
+        <v>-4.96408160422583</v>
       </c>
       <c r="G34" t="n">
-        <v>1.957141790857545</v>
+        <v>1.968658313075902</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.064186790848441</v>
       </c>
       <c r="E35" t="n">
-        <v>4.357438870148771</v>
+        <v>4.378171293792791</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.754721147606308</v>
+        <v>-4.766871377407806</v>
       </c>
       <c r="G35" t="n">
-        <v>1.894936590956687</v>
+        <v>1.904019529674819</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.003352103674769</v>
       </c>
       <c r="E36" t="n">
-        <v>4.01889141994758</v>
+        <v>4.037653799805703</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.503082514476301</v>
+        <v>-4.51441667041231</v>
       </c>
       <c r="G36" t="n">
-        <v>1.774790756526794</v>
+        <v>1.783092996778689</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.945557479903766</v>
       </c>
       <c r="E37" t="n">
-        <v>3.711726828247783</v>
+        <v>3.729399889777235</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.322231275089674</v>
+        <v>-4.332760945653052</v>
       </c>
       <c r="G37" t="n">
-        <v>1.688246062099628</v>
+        <v>1.695803589205214</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8905095203979742</v>
       </c>
       <c r="E38" t="n">
-        <v>3.365559029111302</v>
+        <v>3.382750253306123</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.078009277388923</v>
+        <v>-4.085242936615155</v>
       </c>
       <c r="G38" t="n">
-        <v>1.5386569169204</v>
+        <v>1.545513035247725</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8390771921138213</v>
       </c>
       <c r="E39" t="n">
-        <v>3.078544996729908</v>
+        <v>3.092922046922213</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.93592886566114</v>
+        <v>-3.943415641968222</v>
       </c>
       <c r="G39" t="n">
-        <v>1.408593772286584</v>
+        <v>1.414146490127698</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7904312666601234</v>
       </c>
       <c r="E40" t="n">
-        <v>2.812076752265449</v>
+        <v>2.825658465895275</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.830513225495389</v>
+        <v>-3.837120191226262</v>
       </c>
       <c r="G40" t="n">
-        <v>1.259499882696874</v>
+        <v>1.264059649676243</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7428741079922487</v>
       </c>
       <c r="E41" t="n">
-        <v>2.496506233798711</v>
+        <v>2.507311588507979</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.657773321188835</v>
+        <v>-3.663468760468308</v>
       </c>
       <c r="G41" t="n">
-        <v>1.176219483731664</v>
+        <v>1.17996195700419</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6959724429049233</v>
       </c>
       <c r="E42" t="n">
-        <v>2.185778485505352</v>
+        <v>2.195638463165661</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.488385540921687</v>
+        <v>-3.49187733679607</v>
       </c>
       <c r="G42" t="n">
-        <v>1.039445381891589</v>
+        <v>1.043383639701351</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6480735829485561</v>
       </c>
       <c r="E43" t="n">
-        <v>1.930049114396396</v>
+        <v>1.938908822146838</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.30538860059426</v>
+        <v>-3.308789518287808</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9021876129548524</v>
+        <v>0.9040564099084085</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5994089543981087</v>
       </c>
       <c r="E44" t="n">
-        <v>1.628562884197124</v>
+        <v>1.63567943865342</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.224652180771766</v>
+        <v>-3.226524332289045</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8894933339096951</v>
+        <v>0.892519760307719</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5500507658761493</v>
       </c>
       <c r="E45" t="n">
-        <v>1.450251964429152</v>
+        <v>1.454970310784476</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.044104071961483</v>
+        <v>-3.044141887043442</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7696280629911063</v>
+        <v>0.7716462905104656</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5001616047812018</v>
       </c>
       <c r="E46" t="n">
-        <v>1.235254925875462</v>
+        <v>1.237037724013597</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.944063662719913</v>
+        <v>-2.944106357167286</v>
       </c>
       <c r="G46" t="n">
-        <v>0.660241229299049</v>
+        <v>0.662359483809395</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4509839295566175</v>
       </c>
       <c r="E47" t="n">
-        <v>1.031591433337104</v>
+        <v>1.033630398159473</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.822718724239534</v>
+        <v>-2.820926777291248</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6049683878101098</v>
+        <v>0.6066755557843276</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4030659334442102</v>
       </c>
       <c r="E48" t="n">
-        <v>0.887409234957247</v>
+        <v>0.8883753493092159</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.72127793712415</v>
+        <v>-2.718273467870489</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5388261499408434</v>
+        <v>0.5399856091473415</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.357663948303227</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7598016309680183</v>
+        <v>0.759177682115705</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.629312267722048</v>
+        <v>-2.625801564306686</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4737341954769372</v>
+        <v>0.4756481265605726</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3157278783359685</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5687604468349613</v>
+        <v>0.5674649753175485</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.527216425799837</v>
+        <v>-2.52374597714914</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3955698111482898</v>
+        <v>0.3965914282818428</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2773553932895987</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4457424959382618</v>
+        <v>0.4428112171658106</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.396765371615609</v>
+        <v>-2.39192626096629</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3461875835553833</v>
+        <v>0.3477190943746977</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2431375945470313</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3477422713604141</v>
+        <v>0.3457917450361738</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.328807399891663</v>
+        <v>-2.32381336939045</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3171828057726294</v>
+        <v>0.3191693174167978</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2121858990420298</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2122246061144399</v>
+        <v>0.2099489920694929</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.223682081968045</v>
+        <v>-2.217256567638504</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2951353931495406</v>
+        <v>0.2962210519541522</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1839487346944637</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05403009010697281</v>
+        <v>0.04877684331814179</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.141980157714259</v>
+        <v>-2.134643421893656</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2534186486220037</v>
+        <v>0.2553825932011324</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1573904224302248</v>
       </c>
       <c r="E55" t="n">
-        <v>0.007432760324097932</v>
+        <v>0.002149627422106254</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.081848688114344</v>
+        <v>-2.075667142055503</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1824757251060533</v>
+        <v>0.1830252636358033</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1314634346243956</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.06654085903461353</v>
+        <v>-0.07397152263943511</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.028409878100387</v>
+        <v>-2.021112177203096</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1475181215182384</v>
+        <v>0.1490648803544715</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1058812410287221</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1627680442051546</v>
+        <v>-0.168855662479777</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.031246009247265</v>
+        <v>-2.025463351311017</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1436713518099884</v>
+        <v>0.1449692630101083</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07970437315879925</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1750933212408794</v>
+        <v>-0.1806808045605683</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.002066184230284</v>
+        <v>-1.995153953200699</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1219441475421923</v>
+        <v>0.1220380753264115</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.05308966355127719</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2751617868335798</v>
+        <v>-0.2824314313797399</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.964057147496699</v>
+        <v>-1.957040620031389</v>
       </c>
       <c r="G59" t="n">
-        <v>0.09709170972673919</v>
+        <v>0.09923314122280164</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02544737783784844</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2862672225158084</v>
+        <v>-0.2922590832441813</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.013313121509519</v>
+        <v>-2.009770092298289</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07341458905537959</v>
+        <v>0.07480398835701166</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.003124926634928267</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2948134310384022</v>
+        <v>-0.2985461455801003</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.017510595606899</v>
+        <v>-2.013453403265171</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06724402156871949</v>
+        <v>0.06750201801498391</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.03264946920091763</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.329727730258168</v>
+        <v>-0.3338373757780964</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.983059836101461</v>
+        <v>-1.981075154219323</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05425515083669284</v>
+        <v>0.05472600959914235</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.06266192226745879</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3162801991772268</v>
+        <v>-0.3206411320159754</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.03118501717959</v>
+        <v>-2.028431225324073</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04065696934859489</v>
+        <v>0.04256785082884656</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.09228981885057998</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2908294291778838</v>
+        <v>-0.2938143809698889</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.0975254792688</v>
+        <v>-2.095461507698684</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0455674407170935</v>
+        <v>0.04799553493122753</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1214455340503806</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2579845908143242</v>
+        <v>-0.2592263893121832</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.185674265075813</v>
+        <v>-2.184493458645628</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05058342836266953</v>
+        <v>0.05301640194221754</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.149779165555556</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3051088920619094</v>
+        <v>-0.3082475438644549</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.234075740220508</v>
+        <v>-2.233156589760649</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01625892243731908</v>
+        <v>0.01913652819021642</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1773383228033051</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.2428164735042767</v>
+        <v>-0.2450140177026</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.292751939085702</v>
+        <v>-2.291868164025094</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.00302493959942427</v>
+        <v>-0.0002382120273623928</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2040755860012273</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.2419144008233664</v>
+        <v>-0.2437819779355689</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.380460362164103</v>
+        <v>-2.380406079223872</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02311999613624253</v>
+        <v>-0.01993011099685019</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2295113551148546</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.2270134287697346</v>
+        <v>-0.2276575050043805</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.38950853540366</v>
+        <v>-2.38852961271748</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.003495188441197022</v>
+        <v>0.0004345304790907152</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2533799330535563</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.1995962745085559</v>
+        <v>-0.2003135412244116</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.418682261213873</v>
+        <v>-2.419051873143983</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01321602818102302</v>
+        <v>0.0173671483069703</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2749893856983466</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1969059144034202</v>
+        <v>-0.1955939750277351</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.533876149669249</v>
+        <v>-2.536704961768006</v>
       </c>
       <c r="G71" t="n">
-        <v>0.00267232944207934</v>
+        <v>0.007350421032736944</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2942618628696596</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1910415270964876</v>
+        <v>-0.1897917996298308</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.643533788141782</v>
+        <v>-2.648091115438444</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05408383913271119</v>
+        <v>-0.04983574161916097</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3111114009207582</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.06772227538547451</v>
+        <v>-0.06485320852205165</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.684185611167717</v>
+        <v>-2.68920037897194</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08503792339835188</v>
+        <v>-0.08174923110932636</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3250275700916676</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.04750706447533688</v>
+        <v>-0.04608716913986741</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.743072842587065</v>
+        <v>-2.750139383547868</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.06408226878664211</v>
+        <v>-0.05917179741814349</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3361249787127316</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01274333965654327</v>
+        <v>0.0142437445213435</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.750612072072348</v>
+        <v>-2.75749685667148</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08622116951124312</v>
+        <v>-0.08265740299700421</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.344166585575069</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1238025758442436</v>
+        <v>0.1260885585406954</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.82021926930622</v>
+        <v>-2.829001517130715</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.06080211538709105</v>
+        <v>-0.05729568141646647</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3488814846059688</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1430260557339889</v>
+        <v>0.1433371152791305</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.798789096408</v>
+        <v>-2.807212100953891</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.05671747661490931</v>
+        <v>-0.05319274502398228</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3504054337488104</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2663001733149227</v>
+        <v>0.2669039947849032</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.814104814521821</v>
+        <v>-2.822448529379734</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07629958986258245</v>
+        <v>-0.07253881896975393</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3484187744051376</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3683173354698331</v>
+        <v>0.3701391685312795</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.792301980090108</v>
+        <v>-2.800757310431866</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.03310195793190125</v>
+        <v>-0.02889472510369315</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3432947447084117</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4057987908180315</v>
+        <v>0.4052443729228675</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.725734017588471</v>
+        <v>-2.734549201129511</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02229660322263266</v>
+        <v>-0.01852119423356218</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3340749070812097</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6013094736702982</v>
+        <v>0.6006147740194822</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.680207708513966</v>
+        <v>-2.689049728564783</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.03815698050078915</v>
+        <v>-0.03497380448884104</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3206625145411724</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7197206936955197</v>
+        <v>0.7186027090950405</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.669061408146395</v>
+        <v>-2.677537475791163</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02081929933736431</v>
+        <v>0.02467094841102829</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3026670505360388</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8922330975896474</v>
+        <v>0.8919250876478896</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.603702308426073</v>
+        <v>-2.61136840141212</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04067892649295782</v>
+        <v>0.04524113315503329</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2803292539033072</v>
       </c>
       <c r="E84" t="n">
-        <v>1.054082868212866</v>
+        <v>1.054654973807655</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.554635409823045</v>
+        <v>-2.563775681084792</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02986259321150776</v>
+        <v>0.03306223708172808</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2543054277885895</v>
       </c>
       <c r="E85" t="n">
-        <v>1.200862108834316</v>
+        <v>1.201881896205839</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.51907581452728</v>
+        <v>-2.529138895772947</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03562512376542341</v>
+        <v>0.0391468057529667</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2251678182434469</v>
       </c>
       <c r="E86" t="n">
-        <v>1.376511334768959</v>
+        <v>1.376603432791148</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.476906508857597</v>
+        <v>-2.486087644804685</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03318483113775444</v>
+        <v>0.03653817501851526</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1945192273136515</v>
       </c>
       <c r="E87" t="n">
-        <v>1.481697034839575</v>
+        <v>1.481930024538093</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.395682762414381</v>
+        <v>-2.405763531359673</v>
       </c>
       <c r="G87" t="n">
-        <v>0.08729760349951889</v>
+        <v>0.0895213742869423</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1641407286131886</v>
       </c>
       <c r="E88" t="n">
-        <v>1.650246174176194</v>
+        <v>1.651614836174817</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.243897292878182</v>
+        <v>-2.253165647482046</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1127831389774365</v>
+        <v>0.1160632923769875</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1359372257595929</v>
       </c>
       <c r="E89" t="n">
-        <v>1.745751213265466</v>
+        <v>1.747238199875377</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.093623816699642</v>
+        <v>-2.103339853080239</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1015868251143724</v>
+        <v>0.1042149733104798</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1120122360324587</v>
       </c>
       <c r="E90" t="n">
-        <v>1.851294326852657</v>
+        <v>1.85379012226191</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.978010912739341</v>
+        <v>-1.986653488728861</v>
       </c>
       <c r="G90" t="n">
-        <v>0.127302300687424</v>
+        <v>0.1315503982009742</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.09346849877983221</v>
       </c>
       <c r="E91" t="n">
-        <v>1.882829665523238</v>
+        <v>1.886008572090449</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.712747871532136</v>
+        <v>-1.720447510155404</v>
       </c>
       <c r="G91" t="n">
-        <v>0.156832220172858</v>
+        <v>0.1599025608596077</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08127642123397523</v>
       </c>
       <c r="E92" t="n">
-        <v>1.829650681717575</v>
+        <v>1.831493862002708</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.480010680174552</v>
+        <v>-1.486630759199975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1374385724143</v>
+        <v>0.1403564329318627</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.07550429403146976</v>
       </c>
       <c r="E93" t="n">
-        <v>1.926102927617836</v>
+        <v>1.930970094618286</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.252010132792593</v>
+        <v>-1.25783243557283</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1132777846462792</v>
+        <v>0.1147336653016768</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.07500838341899707</v>
       </c>
       <c r="E94" t="n">
-        <v>1.946826202451705</v>
+        <v>1.951672022228468</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.007208100528255</v>
+        <v>-1.013625685888998</v>
       </c>
       <c r="G94" t="n">
-        <v>0.07815794215844923</v>
+        <v>0.07890997435287959</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07797283272986491</v>
       </c>
       <c r="E95" t="n">
-        <v>1.846744318604116</v>
+        <v>1.850599017281164</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7566801329506063</v>
+        <v>-0.7616900213894149</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04221775636039318</v>
+        <v>0.04374133821090982</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0814139477128005</v>
       </c>
       <c r="E96" t="n">
-        <v>1.766498275005728</v>
+        <v>1.771073899922692</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.5503860525334339</v>
+        <v>-0.554440805192455</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0003242108427838689</v>
+        <v>0.001097514254715854</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08382002627527088</v>
       </c>
       <c r="E97" t="n">
-        <v>1.661017373327565</v>
+        <v>1.663533906039828</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.3150627975064377</v>
+        <v>-0.3189845874579277</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0255816359875977</v>
+        <v>-0.02519189667515569</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08392954395155316</v>
       </c>
       <c r="E98" t="n">
-        <v>1.515972137190109</v>
+        <v>1.518042817887669</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1721864392954982</v>
+        <v>-0.1765272447519141</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1275798906015289</v>
+        <v>-0.1271126913631399</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08210383391074021</v>
       </c>
       <c r="E99" t="n">
-        <v>1.324680885579586</v>
+        <v>1.322513227494423</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.03075254348506773</v>
+        <v>-0.03384484131618039</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1413122546385114</v>
+        <v>-0.1412707800324926</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07896244999173452</v>
       </c>
       <c r="E100" t="n">
-        <v>1.139054577214698</v>
+        <v>1.135706112699351</v>
       </c>
       <c r="F100" t="n">
-        <v>0.06887189985496005</v>
+        <v>0.06651150683594508</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2030850207795548</v>
+        <v>-0.2033826620698078</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07578454488595444</v>
       </c>
       <c r="E101" t="n">
-        <v>1.003014209948751</v>
+        <v>1.000431195882723</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1572616043292886</v>
+        <v>0.1572006122616138</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2260729310861891</v>
+        <v>-0.2263809410279468</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07266754889711824</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8218610598271332</v>
+        <v>0.8185052762636654</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1732421359807645</v>
+        <v>0.1719430049392911</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2468376805260767</v>
+        <v>-0.2472713341272446</v>
       </c>
     </row>
   </sheetData>
